--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -13,6 +13,18 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,8 +65,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -356,12 +370,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
